--- a/meetings/meetings2.xlsx
+++ b/meetings/meetings2.xlsx
@@ -97,7 +97,7 @@
     <t>10 mins</t>
   </si>
   <si>
-    <t>Came up with the conc</t>
+    <t>Came up with the conceptual erd for the data base</t>
   </si>
   <si>
     <t>IV</t>

--- a/meetings/meetings2.xlsx
+++ b/meetings/meetings2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Meeting Title / Project Name &amp; Number</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Preparation for Meeting </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>I</t>
@@ -281,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,7 +331,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -346,7 +343,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -373,16 +370,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -402,9 +393,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -768,16 +756,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="54" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="55" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="56" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="57" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="58" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="59" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="59" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="59" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="59" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="59" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="51" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="53" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="54" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="55" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -799,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>45780</v>
+        <v>45721</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -874,9 +862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="16"/>
@@ -888,9 +874,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="16"/>
@@ -902,10 +886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -919,7 +903,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="21"/>
       <c r="B10" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
@@ -944,16 +928,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>16</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="5"/>
@@ -966,14 +950,14 @@
       <c r="A13" s="30">
         <v>1</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="32" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>19</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="5"/>
@@ -982,15 +966,11 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="30"/>
-      <c r="B14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="33"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="10"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1002,9 +982,9 @@
       <c r="A15" s="30">
         <v>3</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="10"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1014,19 +994,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="37" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>24</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1038,17 +1018,17 @@
       <c r="A17" s="30">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="38" t="s">
         <v>26</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>27</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1058,16 +1038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30.5625">
       <c r="A18" s="30"/>
-      <c r="B18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="42"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1076,16 +1050,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="34.5">
       <c r="A19" s="30"/>
-      <c r="B19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="42"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1094,16 +1062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="37.5">
       <c r="A20" s="30"/>
-      <c r="B20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="43"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1111,11 +1073,11 @@
       <c r="J20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1123,15 +1085,15 @@
       <c r="J21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
